--- a/文档资料/学习系统表.xlsx
+++ b/文档资料/学习系统表.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13792\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1427ecf08971545/ProjectFiles/EduSys/文档资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D741B82-DBBA-4781-A185-BFC275986FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{2D741B82-DBBA-4781-A185-BFC275986FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{019E12F9-095F-4671-99D1-000DA5FF088E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23D6F4F3-B6F7-4DBC-9AE4-5CAD716D7804}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{23D6F4F3-B6F7-4DBC-9AE4-5CAD716D7804}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
     <sheet name="学生表" sheetId="2" r:id="rId2"/>
-    <sheet name="选课表" sheetId="8" r:id="rId3"/>
-    <sheet name="教师表" sheetId="3" r:id="rId4"/>
-    <sheet name="课程表" sheetId="4" r:id="rId5"/>
-    <sheet name="排课表" sheetId="5" r:id="rId6"/>
-    <sheet name="教室表" sheetId="6" r:id="rId7"/>
-    <sheet name="学科系表" sheetId="7" r:id="rId8"/>
+    <sheet name="班级表" sheetId="9" r:id="rId3"/>
+    <sheet name="选课表" sheetId="8" r:id="rId4"/>
+    <sheet name="教师表" sheetId="3" r:id="rId5"/>
+    <sheet name="课程表" sheetId="4" r:id="rId6"/>
+    <sheet name="排课表" sheetId="5" r:id="rId7"/>
+    <sheet name="教室表" sheetId="6" r:id="rId8"/>
+    <sheet name="学科系表" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="109">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -277,10 +278,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>教室表 (Classroom)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Location</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -325,10 +322,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>授课教师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -373,18 +366,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>约束：Role 和 ID 的联合唯一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>char(4)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ENUM('必修' or '选修')</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -409,7 +394,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>约束2：Snum不得超过CRID对应的教室容量Capacity</t>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORENIGN KEY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级表（Class）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级唯一标识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNUM BETWEEN 0 AND 60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级学生数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHeadID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('T' or 'F')</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('普通','体育','电脑','物理','化学' OR '天文')</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束1：SID与CID的联合唯一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室表 (Room)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束2：Snum不得超过CRID对应的教室容量Capacity(触发器实现)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -646,84 +715,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -734,13 +791,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C646C3-EF54-4293-A899-E98C51FB3FC0}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1103,104 +1175,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>69</v>
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1217,7 +1287,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1228,118 +1298,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="A9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1352,11 +1422,127 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A2388-350C-4DA0-8056-5A4E6390883D}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBA8CE3-DFD8-4B57-89E1-5BB02289A4EF}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1367,88 +1553,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1457,20 +1645,21 @@
       <c r="D8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74796EE7-E951-4FC4-9F31-86FAC29DE22A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1481,94 +1670,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1581,12 +1770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5B5491-8319-4217-BD09-27347D9B9A15}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1597,108 +1786,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1709,12 +1912,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB2B3C6-E1B7-4F7B-9CD0-0824DCDEBD0A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1722,232 +1925,122 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>70</v>
+      <c r="D5" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>54</v>
+      <c r="A6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>90</v>
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="A8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A9" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC29427-B257-47D1-90BC-2304E8ADB211}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,11 +2048,128 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC29427-B257-47D1-90BC-2304E8ADB211}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D06C73-5AA7-4390-996A-D211BDA51DC1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1970,67 +2180,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="16" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
